--- a/demo1-consolidador-ventas/output/reporte_consolidado.xlsx
+++ b/demo1-consolidador-ventas/output/reporte_consolidado.xlsx
@@ -255,7 +255,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="16973550" cy="10096500"/>
+    <ext cx="15554325" cy="9258300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -275,12 +275,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="16973550" cy="10115550"/>
+    <ext cx="15554325" cy="9267825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -302,10 +302,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>36</row>
+      <row>38</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18383250" cy="10944225"/>
+    <ext cx="16973550" cy="10096500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -645,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:H36"/>
+  <dimension ref="B2:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,14 +750,14 @@
           <t>📊 Ventas por Sucursal</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="I13" s="7" t="inlineStr">
         <is>
           <t>🥧 Distribución por Categoría</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="7" t="inlineStr">
+    <row r="38">
+      <c r="B38" s="7" t="inlineStr">
         <is>
           <t>📈 Tendencia de Ventas Diarias</t>
         </is>

--- a/demo1-consolidador-ventas/output/reporte_consolidado.xlsx
+++ b/demo1-consolidador-ventas/output/reporte_consolidado.xlsx
@@ -255,7 +255,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="15554325" cy="9258300"/>
+    <ext cx="11315700" cy="6734175"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -275,12 +275,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="15554325" cy="9267825"/>
+    <ext cx="11315700" cy="6743700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -302,10 +302,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>38</row>
+      <row>32</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="16973550" cy="10096500"/>
+    <ext cx="12725400" cy="7572375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -645,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:I38"/>
+  <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,14 +750,14 @@
           <t>📊 Ventas por Sucursal</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="J13" s="7" t="inlineStr">
         <is>
           <t>🥧 Distribución por Categoría</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" s="7" t="inlineStr">
+    <row r="32">
+      <c r="B32" s="7" t="inlineStr">
         <is>
           <t>📈 Tendencia de Ventas Diarias</t>
         </is>

--- a/demo1-consolidador-ventas/output/reporte_consolidado.xlsx
+++ b/demo1-consolidador-ventas/output/reporte_consolidado.xlsx
@@ -255,7 +255,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11315700" cy="6734175"/>
+    <ext cx="8486775" cy="5048250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -275,12 +275,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>10</col>
       <colOff>0</colOff>
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11315700" cy="6743700"/>
+    <ext cx="8486775" cy="5057775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -302,10 +302,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>32</row>
+      <row>28</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="12725400" cy="7572375"/>
+    <ext cx="9896475" cy="5886450"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -645,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:J32"/>
+  <dimension ref="B2:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,14 +750,14 @@
           <t>📊 Ventas por Sucursal</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="K13" s="7" t="inlineStr">
         <is>
           <t>🥧 Distribución por Categoría</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" s="7" t="inlineStr">
+    <row r="28">
+      <c r="B28" s="7" t="inlineStr">
         <is>
           <t>📈 Tendencia de Ventas Diarias</t>
         </is>

--- a/demo1-consolidador-ventas/output/reporte_consolidado.xlsx
+++ b/demo1-consolidador-ventas/output/reporte_consolidado.xlsx
@@ -250,12 +250,12 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>3</col>
       <colOff>0</colOff>
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8486775" cy="5048250"/>
+    <ext cx="5562600" cy="3419475"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -275,12 +275,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>3</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>35</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8486775" cy="5057775"/>
+    <ext cx="5353050" cy="4133850"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -300,12 +300,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>3</col>
       <colOff>0</colOff>
-      <row>28</row>
+      <row>61</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9896475" cy="5886450"/>
+    <ext cx="6991350" cy="3429000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -645,9 +645,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B2:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -745,19 +745,21 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t>📊 Ventas por Sucursal</t>
         </is>
       </c>
-      <c r="K13" s="7" t="inlineStr">
+    </row>
+    <row r="35">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>🥧 Distribución por Categoría</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="7" t="inlineStr">
+    <row r="61">
+      <c r="D61" s="7" t="inlineStr">
         <is>
           <t>📈 Tendencia de Ventas Diarias</t>
         </is>
